--- a/biology/Biochimie/Ribonucléase_T2/Ribonucléase_T2.xlsx
+++ b/biology/Biochimie/Ribonucléase_T2/Ribonucléase_T2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ribonucl%C3%A9ase_T2</t>
+          <t>Ribonucléase_T2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ribonucléase T2 est une endonucléase acide[1] encodée chez l'homme par le gène RNASET2[2],[3], situé, chez l'homo sapiens, sur le Chromosome 6. Il s'agit d'une enzyme extracellulaire précédemment référencée EC 2.7.7.17 et EC 3.1.4.23.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ribonucléase T2 est une endonucléase acide encodée chez l'homme par le gène RNASET2 situé, chez l'homo sapiens, sur le Chromosome 6. Il s'agit d'une enzyme extracellulaire précédemment référencée EC 2.7.7.17 et EC 3.1.4.23.
 </t>
         </is>
       </c>
